--- a/biology/Botanique/Bain_de_soleil/Bain_de_soleil.xlsx
+++ b/biology/Botanique/Bain_de_soleil/Bain_de_soleil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bain de soleil est un mobilier semblable à une chaise, généralement placé sur un patio, un jardin, une terrasse de piscine, ou utilisé comme mobilier d'extérieur au bord d’une plage[1].
-Ils sont souvent construits à partir de bois, de plastique moulé ou de métal et de tissus d' extérieur. Ils ont conçu des dossiers réglables sur lesquels les gens peuvent s'allonger ou s'asseoir ( s'incliner ) tout en se relaxant[2]. Similaire à un transat et un lit par nature, la surface arrière peut être relevée pour permettre à l'utilisateur de s'asseoir et de lire, ou elle peut être inclinée sur une surface plane pour permettre de dormir en position horizontale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bain de soleil est un mobilier semblable à une chaise, généralement placé sur un patio, un jardin, une terrasse de piscine, ou utilisé comme mobilier d'extérieur au bord d’une plage.
+Ils sont souvent construits à partir de bois, de plastique moulé ou de métal et de tissus d' extérieur. Ils ont conçu des dossiers réglables sur lesquels les gens peuvent s'allonger ou s'asseoir ( s'incliner ) tout en se relaxant. Similaire à un transat et un lit par nature, la surface arrière peut être relevée pour permettre à l'utilisateur de s'asseoir et de lire, ou elle peut être inclinée sur une surface plane pour permettre de dormir en position horizontale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont populaires et répandus dans les stations touristiques d'Europe et près des piscines. Leur présence s’est particulièrement développée durant les années 2020 comme aménagement urbain provisoire à destination des piétons.
 </t>
